--- a/Программа/Program.xlsx
+++ b/Программа/Program.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a3b000772d7eba9b/Обмен АТИ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kopylov_dv\OneDrive\Обмен АТИ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_7DD39404C18C7DD4F1B286AB23BB56F2DE52ED06" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{970FD438-5B44-4BDB-B2F7-29A4C75A89D7}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -78,7 +77,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -93,6 +92,8 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -100,12 +101,16 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -117,7 +122,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -189,21 +194,6 @@
       <left style="dashed">
         <color indexed="64"/>
       </left>
-      <right style="dashed">
-        <color indexed="64"/>
-      </right>
-      <top style="dashed">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -249,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -266,19 +256,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -299,9 +286,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -339,9 +326,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -376,7 +363,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -411,7 +398,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -584,11 +571,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -599,20 +586,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="9">
+      <c r="B1" s="8">
         <v>48</v>
       </c>
-      <c r="C1" s="9"/>
+      <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="8"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -630,10 +617,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="5">
-        <v>60</v>
-      </c>
-      <c r="C4" s="6">
-        <v>70</v>
+        <v>77</v>
+      </c>
+      <c r="C4" s="5">
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -641,10 +628,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="5">
+        <v>79</v>
+      </c>
+      <c r="C5" s="5">
         <v>60</v>
-      </c>
-      <c r="C5" s="6">
-        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -652,10 +639,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="5">
-        <v>60</v>
-      </c>
-      <c r="C6" s="6">
-        <v>70</v>
+        <v>85</v>
+      </c>
+      <c r="C6" s="5">
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -663,10 +650,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="5">
-        <v>60</v>
-      </c>
-      <c r="C7" s="6">
-        <v>70</v>
+        <v>86</v>
+      </c>
+      <c r="C7" s="5">
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -674,10 +661,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="5">
-        <v>60</v>
-      </c>
-      <c r="C8" s="6">
-        <v>70</v>
+        <v>86</v>
+      </c>
+      <c r="C8" s="5">
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -685,10 +672,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="5">
-        <v>60</v>
-      </c>
-      <c r="C9" s="6">
-        <v>70</v>
+        <v>86</v>
+      </c>
+      <c r="C9" s="5">
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -696,10 +683,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="5">
-        <v>60</v>
-      </c>
-      <c r="C10" s="6">
-        <v>70</v>
+        <v>83</v>
+      </c>
+      <c r="C10" s="5">
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -707,10 +694,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="5">
-        <v>60</v>
-      </c>
-      <c r="C11" s="6">
-        <v>70</v>
+        <v>84</v>
+      </c>
+      <c r="C11" s="5">
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -718,10 +705,10 @@
         <v>16</v>
       </c>
       <c r="B12" s="5">
-        <v>60</v>
-      </c>
-      <c r="C12" s="6">
-        <v>70</v>
+        <v>84</v>
+      </c>
+      <c r="C12" s="5">
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -729,10 +716,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="5">
-        <v>60</v>
-      </c>
-      <c r="C13" s="6">
-        <v>70</v>
+        <v>85</v>
+      </c>
+      <c r="C13" s="5">
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -740,21 +727,21 @@
         <v>11</v>
       </c>
       <c r="B14" s="5">
-        <v>60</v>
-      </c>
-      <c r="C14" s="6">
+        <v>86</v>
+      </c>
+      <c r="C14" s="5">
         <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="5">
-        <v>60</v>
-      </c>
-      <c r="C15" s="6">
-        <v>70</v>
+        <v>85</v>
+      </c>
+      <c r="C15" s="5">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -763,7 +750,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -775,7 +762,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
